--- a/challenge_4/Solution_Sketch/Walt Disney - Arvid.xlsx
+++ b/challenge_4/Solution_Sketch/Walt Disney - Arvid.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://transwaggon-my.sharepoint.com/personal/arvid_freese_transwaggon_de/Documents/Desktop/Berufsschule/GITREPS/SmartSystemsBS14/challenge_4/Solution Sketch/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://transwaggon-my.sharepoint.com/personal/arvid_freese_transwaggon_de/Documents/Desktop/Berufsschule/GITREPS/SmartSystemsBS14/challenge_4/Solution_Sketch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="11_0B5396D0664B5B0EB4B3B121E167C52EA64480DA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A15893CA-4022-4521-A229-E209C918AED9}"/>
+  <xr:revisionPtr revIDLastSave="64" documentId="11_0B5396D0664B5B0EB4B3B121E167C52EA64480DA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF7FA9CF-547E-4D29-9AA6-DCC3B96E7727}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="264" windowWidth="23040" windowHeight="12096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabellenblatt1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Walt Disney Method</t>
   </si>
@@ -65,40 +65,35 @@
     <t>Accurate and Early Information about the ferry</t>
   </si>
   <si>
-    <t>No more waiting People for the ferry that doesnt come</t>
-  </si>
-  <si>
-    <t>Then we could buy the subcompany that owns the 
+    <t>The Ferry does not need a captain because its all automated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">That is possible if we have Billboard at the ferry and as Example HVV Infos </t>
+  </si>
+  <si>
+    <t>If we have the sensors like GPS and RFID then it might be possible</t>
+  </si>
+  <si>
+    <t>We could buy the subcompany that owns the 
 ferry and invest way more money in digitalization and the ferrys itself</t>
   </si>
   <si>
-    <t>The Ferry does not need a captain because its all automated</t>
-  </si>
-  <si>
-    <t>We need to get access to the informations for the water 
-level; make an app or website that actually is good</t>
-  </si>
-  <si>
-    <t>We need to discuss which sensors we want to use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Discussing / Planning / Testing </t>
-  </si>
-  <si>
-    <t>We have much Knowledge about IoT, RasPi, Arduinos, 
-MQTT, NodeRed…</t>
-  </si>
-  <si>
-    <t>Due to the time limit i think we can only prototype the Solution</t>
-  </si>
-  <si>
-    <t>Time Limit and Ressource Problems (Missing Sensors)</t>
-  </si>
-  <si>
-    <t>GPS Tracker Sensor</t>
-  </si>
-  <si>
-    <t>The Weak Point is that we cant do much to solve the actual problem</t>
+    <t>We need lots of money</t>
+  </si>
+  <si>
+    <t>We can only prototype the billboard and set up a Test App</t>
+  </si>
+  <si>
+    <t>We cant just put GPS sensors on the ferry without even asking but we can test it and connect it to our test app</t>
+  </si>
+  <si>
+    <t>We have no money</t>
+  </si>
+  <si>
+    <t>We need futuristic technology</t>
+  </si>
+  <si>
+    <t>Maybe in a few years with artificial intellegence</t>
   </si>
 </sst>
 </file>
@@ -275,18 +270,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -294,6 +277,18 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -310,6 +305,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -546,81 +545,79 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="64.95" customHeight="1">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="10" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>17</v>
+      <c r="B6" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="16" t="s">
-        <v>18</v>
-      </c>
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="12"/>
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1">
       <c r="A8" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="12"/>
+    </row>
+    <row r="10" spans="1:3" ht="13.2" customHeight="1">
+      <c r="A10" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="13.2" customHeight="1">
-      <c r="A10" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="7"/>
+      <c r="C10" s="7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A11" s="12"/>
-      <c r="B11" s="10"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="15"/>
       <c r="C11" s="7"/>
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A12" s="13"/>
+      <c r="A12" s="17"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
     </row>
     <row r="13" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A13" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
+      <c r="A13" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1">
       <c r="A14" s="8"/>
